--- a/documents/tablas.xlsx
+++ b/documents/tablas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDSoto\Documents\univalle\Semestre V\Fundamentos de Analisis y Diseño de Algoritmos\proyecto\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E398B3-A23B-4CF5-A8DF-C238E466A930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C5158-CD22-4E43-B7F6-7B804F4FCFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{04FF577C-29AB-4AB8-BA5D-FC1EECB3F568}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{04FF577C-29AB-4AB8-BA5D-FC1EECB3F568}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dinamica" sheetId="1" r:id="rId1"/>
+    <sheet name="Voraz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>ETAPA 3</t>
   </si>
@@ -101,13 +102,58 @@
   </si>
   <si>
     <t>Z=</t>
+  </si>
+  <si>
+    <t>Equipos de salud</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Mas optimo</t>
+  </si>
+  <si>
+    <t>3 -&gt; 1 -&gt; 2 -&gt; 4</t>
+  </si>
+  <si>
+    <t>1 pais1</t>
+  </si>
+  <si>
+    <t>3 pais2</t>
+  </si>
+  <si>
+    <t>1 pais3</t>
+  </si>
+  <si>
+    <t>3 -&gt; 1 -&gt; 4 -&gt; 2</t>
+  </si>
+  <si>
+    <t>1 pais4</t>
+  </si>
+  <si>
+    <t>2 pais2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beneficio </t>
+  </si>
+  <si>
+    <t>asignacion</t>
+  </si>
+  <si>
+    <t>&lt; 1, 2, 1, 1 &gt;</t>
+  </si>
+  <si>
+    <t>&lt; 1, 0, 1, 3 &gt;</t>
+  </si>
+  <si>
+    <t>&lt; 1, 3, 1 &gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +163,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -207,11 +259,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +300,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,1064 +641,1647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A50122-D605-4867-87C9-E7A60666FDC4}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="J1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+    <row r="1" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="N3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="O3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="P3" s="2">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
+      <c r="Q3" s="2">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <f>MAX(C4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2">
+        <f>MAX(L4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J5" s="1"/>
+      <c r="K5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
         <v>35</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I9" si="0">MAX(C5:H5)</f>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2">
+        <f t="shared" ref="R5:R9" si="0">MAX(L5:Q5)</f>
         <v>35</v>
       </c>
-      <c r="J5" s="2">
+      <c r="S5" s="2">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+      <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
         <v>65</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="J6" s="2">
+      <c r="S6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
         <v>90</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J7" s="2">
+      <c r="S7" s="2">
         <v>3</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+      <c r="K8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
         <v>100</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J8" s="2">
+      <c r="S8" s="2">
         <v>4</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
         <v>115</v>
       </c>
-      <c r="I9" s="2">
+      <c r="R9" s="2">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="J9" s="2">
+      <c r="S9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+      <c r="K12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="N12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
+      <c r="O12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="2">
+      <c r="P12" s="2">
         <v>4</v>
       </c>
-      <c r="H12" s="2">
+      <c r="Q12" s="2">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <f>MAX(C13:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2">
+        <f>MAX(L13:Q13)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J14" s="1"/>
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="C14" s="2">
+      <c r="L14" s="2">
         <v>35</v>
       </c>
-      <c r="D14" s="4">
+      <c r="M14" s="4">
         <v>50</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <f t="shared" ref="I14:I18" si="1">MAX(C14:H14)</f>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2">
+        <f t="shared" ref="R14:R18" si="1">MAX(L14:Q14)</f>
         <v>50</v>
       </c>
-      <c r="J14" s="2">
+      <c r="S14" s="2">
         <v>1</v>
       </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J15" s="1"/>
+      <c r="K15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="L15" s="2">
         <v>65</v>
       </c>
-      <c r="D15" s="4">
-        <f>D14+C14</f>
+      <c r="M15" s="4">
+        <f>M14+L14</f>
         <v>85</v>
       </c>
-      <c r="E15" s="2">
+      <c r="N15" s="2">
         <v>70</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="J15" s="2">
+      <c r="S15" s="2">
         <v>1</v>
       </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+      <c r="K16" s="2">
         <v>3</v>
       </c>
-      <c r="C16" s="2">
+      <c r="L16" s="2">
         <v>90</v>
       </c>
-      <c r="D16" s="4">
-        <f>D14+C15</f>
+      <c r="M16" s="4">
+        <f>M14+L15</f>
         <v>115</v>
       </c>
-      <c r="E16" s="2">
-        <f>E15+C14</f>
+      <c r="N16" s="2">
+        <f>N15+L14</f>
         <v>105</v>
       </c>
-      <c r="F16" s="2">
+      <c r="O16" s="2">
         <v>80</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="J16" s="2">
+      <c r="S16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J17" s="1"/>
+      <c r="K17" s="2">
         <v>4</v>
       </c>
-      <c r="C17" s="2">
+      <c r="L17" s="2">
         <v>100</v>
       </c>
-      <c r="D17" s="4">
-        <f>D14+C16</f>
+      <c r="M17" s="4">
+        <f>M14+L16</f>
         <v>140</v>
       </c>
-      <c r="E17" s="2">
-        <f>E15+C15</f>
+      <c r="N17" s="2">
+        <f>N15+L15</f>
         <v>135</v>
       </c>
-      <c r="F17" s="2">
-        <f>F16+C14</f>
+      <c r="O17" s="2">
+        <f>O16+L14</f>
         <v>115</v>
       </c>
-      <c r="G17" s="2">
+      <c r="P17" s="2">
         <v>100</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="J17" s="2">
+      <c r="S17" s="2">
         <v>1</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+      <c r="K18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="2">
+      <c r="L18" s="2">
         <v>115</v>
       </c>
-      <c r="D18" s="2">
-        <f>D14+C17</f>
+      <c r="M18" s="2">
+        <f>M14+L17</f>
         <v>150</v>
       </c>
-      <c r="E18" s="4">
-        <f>E15+C16</f>
+      <c r="N18" s="4">
+        <f>N15+L16</f>
         <v>160</v>
       </c>
-      <c r="F18" s="2">
-        <f>F16+C15</f>
+      <c r="O18" s="2">
+        <f>O16+L15</f>
         <v>145</v>
       </c>
-      <c r="G18" s="2">
-        <f>G17+C14</f>
+      <c r="P18" s="2">
+        <f>P17+L14</f>
         <v>135</v>
       </c>
-      <c r="H18" s="2">
+      <c r="Q18" s="2">
         <v>130</v>
       </c>
-      <c r="I18" s="2">
+      <c r="R18" s="2">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="J18" s="2">
+      <c r="S18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+      <c r="K21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
+      <c r="N21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="O21" s="2">
         <v>3</v>
       </c>
-      <c r="G21" s="2">
+      <c r="P21" s="2">
         <v>4</v>
       </c>
-      <c r="H21" s="2">
+      <c r="Q21" s="2">
         <v>5</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <f>MAX(C22:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2">
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J22" s="1"/>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2">
+        <f>MAX(L22:Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+      <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="4">
+      <c r="L23" s="4">
         <v>50</v>
       </c>
-      <c r="D23" s="2">
+      <c r="M23" s="2">
         <v>20</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <f t="shared" ref="I23:I27" si="2">MAX(C23:H23)</f>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2">
+        <f t="shared" ref="R23:R27" si="2">MAX(L23:Q23)</f>
         <v>50</v>
       </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2">
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="L24" s="4">
         <v>85</v>
       </c>
-      <c r="D24" s="2">
-        <f>D23+C23</f>
+      <c r="M24" s="2">
+        <f>M23+L23</f>
         <v>70</v>
       </c>
-      <c r="E24" s="2">
+      <c r="N24" s="2">
         <v>45</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2">
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="2">
         <v>3</v>
       </c>
-      <c r="C25" s="4">
+      <c r="L25" s="4">
         <v>115</v>
       </c>
-      <c r="D25" s="2">
-        <f>D23+C24</f>
+      <c r="M25" s="2">
+        <f>M23+L24</f>
         <v>105</v>
       </c>
-      <c r="E25" s="2">
-        <f>E24+C23</f>
+      <c r="N25" s="2">
+        <f>N24+L23</f>
         <v>95</v>
       </c>
-      <c r="F25" s="2">
+      <c r="O25" s="2">
         <v>75</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2">
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="4">
+      <c r="L26" s="4">
         <v>140</v>
       </c>
-      <c r="D26" s="2">
-        <f>D23+C25</f>
+      <c r="M26" s="2">
+        <f>M23+L25</f>
         <v>135</v>
       </c>
-      <c r="E26" s="2">
-        <f>E24+C24</f>
+      <c r="N26" s="2">
+        <f>N24+L24</f>
         <v>130</v>
       </c>
-      <c r="F26" s="2">
-        <f>F25+C23</f>
+      <c r="O26" s="2">
+        <f>O25+L23</f>
         <v>125</v>
       </c>
-      <c r="G26" s="2">
+      <c r="P26" s="2">
         <v>110</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2">
+      <c r="S26" s="2">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
+      <c r="K27" s="2">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="L27" s="4">
         <v>160</v>
       </c>
-      <c r="D27" s="4">
-        <f>D23+C26</f>
+      <c r="M27" s="4">
+        <f>M23+L26</f>
         <v>160</v>
       </c>
-      <c r="E27" s="4">
-        <f>E24+C25</f>
+      <c r="N27" s="4">
+        <f>N24+L25</f>
         <v>160</v>
       </c>
-      <c r="F27" s="4">
-        <f>F25+C24</f>
+      <c r="O27" s="4">
+        <f>O25+L24</f>
         <v>160</v>
       </c>
-      <c r="G27" s="4">
-        <f>G26+C23</f>
+      <c r="P27" s="4">
+        <f>P26+L23</f>
         <v>160</v>
       </c>
-      <c r="H27" s="2">
+      <c r="Q27" s="2">
         <v>150</v>
       </c>
-      <c r="I27" s="2">
+      <c r="R27" s="2">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J30" s="1"/>
+      <c r="K30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="N30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="2">
+      <c r="O30" s="2">
         <v>3</v>
       </c>
-      <c r="G30" s="2">
+      <c r="P30" s="2">
         <v>4</v>
       </c>
-      <c r="H30" s="2">
+      <c r="Q30" s="2">
         <v>5</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2">
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+      <c r="K31" s="2">
         <v>5</v>
       </c>
-      <c r="C31" s="2">
+      <c r="L31" s="2">
         <v>160</v>
       </c>
-      <c r="D31" s="4">
-        <f>45+I26</f>
+      <c r="M31" s="4">
+        <f>45+R26</f>
         <v>185</v>
       </c>
-      <c r="E31" s="4">
-        <f>70+I25</f>
+      <c r="N31" s="4">
+        <f>70+R25</f>
         <v>185</v>
       </c>
-      <c r="F31" s="2">
-        <f>90+I24</f>
+      <c r="O31" s="2">
+        <f>90+R24</f>
         <v>175</v>
       </c>
-      <c r="G31" s="2">
-        <f>105+I23</f>
+      <c r="P31" s="2">
+        <f>105+R23</f>
         <v>155</v>
       </c>
-      <c r="H31" s="2">
+      <c r="Q31" s="2">
         <v>120</v>
       </c>
-      <c r="I31" s="2">
-        <f>MAX(C31:H31)</f>
+      <c r="R31" s="2">
+        <f>MAX(L31:Q31)</f>
         <v>185</v>
       </c>
-      <c r="J31" s="2">
+      <c r="S31" s="2">
         <v>1.2</v>
       </c>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="5"/>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="2">
-        <v>45</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="L33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>185</v>
+      </c>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="L34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1</v>
+      </c>
+      <c r="N34" s="2">
+        <v>45</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>50</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="L35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>90</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="L36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>50</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="4">
-        <f>SUM(E34:E37)</f>
-        <v>185</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="L37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>90</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N38" s="4">
+        <f>SUM(N34:N37)</f>
+        <v>185</v>
+      </c>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="10:23" x14ac:dyDescent="0.25">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="L33:N33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16EC8A4-2BEA-4707-9A34-A5BE4380BFA2}">
+  <dimension ref="B3:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15">
+        <v>2</v>
+      </c>
+      <c r="M4" s="15">
+        <v>3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>45</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45</v>
+      </c>
+      <c r="L6" s="2">
+        <v>20</v>
+      </c>
+      <c r="M6" s="4">
+        <v>50</v>
+      </c>
+      <c r="N6" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>70</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>70</v>
+      </c>
+      <c r="L7" s="4">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2">
+        <v>70</v>
+      </c>
+      <c r="N7" s="16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90</v>
+      </c>
+      <c r="D8" s="4">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2">
+        <v>80</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>90</v>
+      </c>
+      <c r="L8" s="16">
+        <v>75</v>
+      </c>
+      <c r="M8" s="2">
+        <v>80</v>
+      </c>
+      <c r="N8" s="16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>105</v>
+      </c>
+      <c r="D9" s="2">
+        <v>110</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2">
+        <v>105</v>
+      </c>
+      <c r="L9" s="2">
+        <v>110</v>
+      </c>
+      <c r="M9" s="2">
+        <v>100</v>
+      </c>
+      <c r="N9" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>120</v>
+      </c>
+      <c r="D10" s="2">
+        <v>150</v>
+      </c>
+      <c r="E10" s="2">
+        <v>130</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>120</v>
+      </c>
+      <c r="L10" s="2">
+        <v>150</v>
+      </c>
+      <c r="M10" s="2">
+        <v>130</v>
+      </c>
+      <c r="N10" s="16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="J13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="8"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="9"/>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3</v>
+      </c>
+      <c r="N14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12">
+        <f>C6/B16</f>
+        <v>45</v>
+      </c>
+      <c r="D16" s="13">
+        <f>D6/B16</f>
+        <v>20</v>
+      </c>
+      <c r="E16" s="14">
+        <f>E6/B16</f>
+        <v>50</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <f>K6/J16</f>
+        <v>45</v>
+      </c>
+      <c r="L16" s="17">
+        <f>L6/J16</f>
+        <v>20</v>
+      </c>
+      <c r="M16" s="12">
+        <f>M6/J16</f>
+        <v>50</v>
+      </c>
+      <c r="N16" s="12">
+        <f>N6/J16</f>
+        <v>35</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
+        <f>C7/B17</f>
+        <v>35</v>
+      </c>
+      <c r="D17" s="13">
+        <f>D7/B17</f>
+        <v>22.5</v>
+      </c>
+      <c r="E17" s="13">
+        <f>E7/B17</f>
+        <v>35</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+      <c r="K17" s="17">
+        <f>K7/J17</f>
+        <v>35</v>
+      </c>
+      <c r="L17" s="17">
+        <f>L7/J17</f>
+        <v>22.5</v>
+      </c>
+      <c r="M17" s="17">
+        <f>M7/J17</f>
+        <v>35</v>
+      </c>
+      <c r="N17" s="17">
+        <f>N7/J17</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="13">
+        <f>C8/B18</f>
+        <v>30</v>
+      </c>
+      <c r="D18" s="13">
+        <f>D8/B18</f>
+        <v>25</v>
+      </c>
+      <c r="E18" s="13">
+        <f>E8/B18</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="17">
+        <f>K8/J18</f>
+        <v>30</v>
+      </c>
+      <c r="L18" s="17">
+        <f>L8/J18</f>
+        <v>25</v>
+      </c>
+      <c r="M18" s="17">
+        <f>M8/J18</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="N18" s="17">
+        <f>N8/J18</f>
+        <v>30</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>4</v>
+      </c>
+      <c r="C19" s="13">
+        <f>C9/B19</f>
+        <v>26.25</v>
+      </c>
+      <c r="D19" s="13">
+        <f>D9/B19</f>
+        <v>27.5</v>
+      </c>
+      <c r="E19" s="13">
+        <f>E9/B19</f>
+        <v>25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+      <c r="K19" s="17">
+        <f>K9/J19</f>
+        <v>26.25</v>
+      </c>
+      <c r="L19" s="17">
+        <f>L9/J19</f>
+        <v>27.5</v>
+      </c>
+      <c r="M19" s="17">
+        <f>M9/J19</f>
+        <v>25</v>
+      </c>
+      <c r="N19" s="17">
+        <f>N9/J19</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>5</v>
+      </c>
+      <c r="C20" s="13">
+        <f>C10/B20</f>
+        <v>24</v>
+      </c>
+      <c r="D20" s="14">
+        <f>D10/B20</f>
+        <v>30</v>
+      </c>
+      <c r="E20" s="13">
+        <f>E10/B20</f>
+        <v>26</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="17">
+        <f>K10/J20</f>
+        <v>24</v>
+      </c>
+      <c r="L20" s="12">
+        <f>L10/J20</f>
+        <v>30</v>
+      </c>
+      <c r="M20" s="17">
+        <f>M10/J20</f>
+        <v>26</v>
+      </c>
+      <c r="N20" s="17">
+        <f>N10/J20</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2">
+        <v>170</v>
+      </c>
+      <c r="L23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:N13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/tablas.xlsx
+++ b/documents/tablas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDSoto\Documents\univalle\Semestre V\Fundamentos de Analisis y Diseño de Algoritmos\proyecto\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744C5158-CD22-4E43-B7F6-7B804F4FCFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ADE9A4-EDBA-4212-BE0C-0E9A4BC61ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{04FF577C-29AB-4AB8-BA5D-FC1EECB3F568}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{04FF577C-29AB-4AB8-BA5D-FC1EECB3F568}"/>
   </bookViews>
   <sheets>
     <sheet name="Dinamica" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>ETAPA 3</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Mas optimo</t>
   </si>
   <si>
-    <t>3 -&gt; 1 -&gt; 2 -&gt; 4</t>
-  </si>
-  <si>
     <t>1 pais1</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>&lt; 1, 3, 1 &gt;</t>
+  </si>
+  <si>
+    <t>3 -&gt; 1 -&gt; 2 -&gt;</t>
   </si>
 </sst>
 </file>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -291,21 +291,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -325,6 +310,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,24 +644,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A50122-D605-4867-87C9-E7A60666FDC4}">
-  <dimension ref="J1:W41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -668,217 +666,553 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J3" s="1"/>
-      <c r="K3" s="2" t="s">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13">
+        <v>5</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2">
         <v>2</v>
       </c>
-      <c r="O3" s="2">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="T3" s="2">
+        <v>3</v>
+      </c>
+      <c r="U3" s="2">
         <v>4</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="V3" s="2">
         <v>5</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J4" s="1"/>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2">
-        <f>MAX(L4:Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J5" s="1"/>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
-        <v>35</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13">
+        <f>MAX(B4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="13">
+        <v>2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2">
+        <f>MAX(Q4:V4)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11">
+        <v>50</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13">
+        <f t="shared" ref="H5:H9" si="0">MAX(B5:G5)</f>
+        <v>50</v>
+      </c>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2">
-        <f t="shared" ref="R5:R9" si="0">MAX(L5:Q5)</f>
         <v>35</v>
       </c>
-      <c r="S5" s="2">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J6" s="1"/>
-      <c r="K6" s="2">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2">
+        <f t="shared" ref="W5:W9" si="1">MAX(Q5:V5)</f>
+        <v>35</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11">
+        <v>70</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I6" s="13">
+        <v>2</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>45</v>
+      </c>
+      <c r="M6" s="13">
+        <v>20</v>
+      </c>
+      <c r="N6" s="4">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
         <v>65</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>20</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13">
+        <v>80</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="I7" s="13">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="13">
+        <v>2</v>
+      </c>
+      <c r="L7" s="13">
+        <v>70</v>
+      </c>
+      <c r="M7" s="13">
+        <v>45</v>
+      </c>
+      <c r="N7" s="13">
+        <v>70</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>90</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="13">
+        <v>70</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="13">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="11">
         <v>65</v>
       </c>
-      <c r="S6" s="2">
-        <v>2</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-    </row>
-    <row r="7" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J7" s="1"/>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2">
-        <v>90</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S7" s="2">
-        <v>3</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J8" s="1"/>
-      <c r="K8" s="2">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13">
         <v>100</v>
       </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="S8" s="2">
+      <c r="I8" s="13">
         <v>4</v>
       </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J9" s="1"/>
-      <c r="K9" s="2">
+      <c r="J8" s="3"/>
+      <c r="K8" s="13">
+        <v>3</v>
+      </c>
+      <c r="L8" s="13">
+        <v>90</v>
+      </c>
+      <c r="M8" s="4">
+        <v>75</v>
+      </c>
+      <c r="N8" s="13">
+        <v>80</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>100</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="X8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="11">
+        <v>75</v>
+      </c>
+      <c r="AC8" s="13">
+        <v>80</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <v>130</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="I9" s="13">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13">
+        <v>4</v>
+      </c>
+      <c r="L9" s="13">
+        <v>105</v>
+      </c>
+      <c r="M9" s="13">
+        <v>110</v>
+      </c>
+      <c r="N9" s="13">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
         <v>115</v>
       </c>
-      <c r="R9" s="2">
-        <f t="shared" si="0"/>
+      <c r="W9" s="2">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="S9" s="2">
+      <c r="X9" s="2">
         <v>5</v>
       </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="13">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="13">
+        <v>105</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="13">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="K10" s="13">
+        <v>5</v>
+      </c>
+      <c r="L10" s="13">
+        <v>120</v>
+      </c>
+      <c r="M10" s="13">
+        <v>150</v>
+      </c>
+      <c r="N10" s="13">
+        <v>130</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -888,252 +1222,506 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="13">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>150</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>130</v>
+      </c>
+      <c r="AD10" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J12" s="1"/>
-      <c r="K12" s="2" t="s">
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13">
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
+        <v>4</v>
+      </c>
+      <c r="G12" s="13">
+        <v>5</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="2">
-        <v>3</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>3</v>
+      </c>
+      <c r="U12" s="2">
         <v>4</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="V12" s="2">
         <v>5</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J13" s="1"/>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2">
-        <f>MAX(L13:Q13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J14" s="1"/>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>0</v>
+      </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
+        <f>MAX(B13:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2">
+        <f>MAX(Q13:V13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4">
+        <v>50</v>
+      </c>
+      <c r="C14" s="13">
+        <v>20</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13">
+        <f t="shared" ref="H14:H18" si="2">MAX(B14:G14)</f>
+        <v>50</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
         <v>35</v>
       </c>
-      <c r="M14" s="4">
+      <c r="R14" s="4">
         <v>50</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2">
-        <f t="shared" ref="R14:R18" si="1">MAX(L14:Q14)</f>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2">
+        <f t="shared" ref="W14:W18" si="3">MAX(Q14:V14)</f>
         <v>50</v>
       </c>
-      <c r="S14" s="2">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J15" s="1"/>
-      <c r="K15" s="2">
+      <c r="X14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
         <v>2</v>
       </c>
-      <c r="L15" s="2">
+      <c r="B15" s="4">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4">
+        <f>C14+B14</f>
+        <v>70</v>
+      </c>
+      <c r="D15" s="13">
+        <v>45</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13">
+        <f>MAX(B15:G15)</f>
+        <v>70</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2">
         <v>65</v>
       </c>
-      <c r="M15" s="4">
-        <f>M14+L14</f>
+      <c r="R15" s="4">
+        <f>R14+Q14</f>
         <v>85</v>
       </c>
-      <c r="N15" s="2">
+      <c r="S15" s="2">
         <v>70</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2">
-        <f t="shared" si="1"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2">
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="S15" s="2">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J16" s="1"/>
-      <c r="K16" s="2">
-        <v>3</v>
-      </c>
-      <c r="L16" s="2">
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>3</v>
+      </c>
+      <c r="B16" s="11">
+        <v>80</v>
+      </c>
+      <c r="C16" s="11">
+        <f>C14+B15</f>
         <v>90</v>
       </c>
-      <c r="M16" s="4">
-        <f>M14+L15</f>
+      <c r="D16" s="4">
+        <f>D15+B14</f>
+        <v>95</v>
+      </c>
+      <c r="E16" s="13">
+        <v>75</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13">
+        <f>MAX(B16:G16)</f>
+        <v>95</v>
+      </c>
+      <c r="I16" s="13">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>90</v>
+      </c>
+      <c r="R16" s="4">
+        <f>R14+Q15</f>
         <v>115</v>
       </c>
-      <c r="N16" s="2">
-        <f>N15+L14</f>
+      <c r="S16" s="2">
+        <f>S15+Q14</f>
         <v>105</v>
       </c>
-      <c r="O16" s="2">
+      <c r="T16" s="2">
         <v>80</v>
       </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2">
-        <f t="shared" si="1"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2">
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="S16" s="2">
-        <v>1</v>
-      </c>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J17" s="1"/>
-      <c r="K17" s="2">
+      <c r="X16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="L17" s="2">
+      <c r="B17" s="11">
         <v>100</v>
       </c>
-      <c r="M17" s="4">
-        <f>M14+L16</f>
+      <c r="C17" s="13">
+        <f>C14+B16</f>
+        <v>100</v>
+      </c>
+      <c r="D17" s="13">
+        <f>D15+B15</f>
+        <v>115</v>
+      </c>
+      <c r="E17" s="4">
+        <f>E16+B14</f>
+        <v>125</v>
+      </c>
+      <c r="F17" s="13">
+        <v>110</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="I17" s="13">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>100</v>
+      </c>
+      <c r="R17" s="4">
+        <f>R14+Q16</f>
         <v>140</v>
       </c>
-      <c r="N17" s="2">
-        <f>N15+L15</f>
+      <c r="S17" s="2">
+        <f>S15+Q15</f>
         <v>135</v>
       </c>
-      <c r="O17" s="2">
-        <f>O16+L14</f>
+      <c r="T17" s="2">
+        <f>T16+Q14</f>
         <v>115</v>
       </c>
-      <c r="P17" s="2">
+      <c r="U17" s="2">
         <v>100</v>
       </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2">
-        <f t="shared" si="1"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="S17" s="2">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J18" s="1"/>
-      <c r="K18" s="2">
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
         <v>5</v>
       </c>
-      <c r="L18" s="2">
+      <c r="B18" s="11">
+        <v>130</v>
+      </c>
+      <c r="C18" s="11">
+        <f>C14+B17</f>
+        <v>120</v>
+      </c>
+      <c r="D18" s="11">
+        <f>D15+B16</f>
+        <v>125</v>
+      </c>
+      <c r="E18" s="11">
+        <f>E16+B15</f>
+        <v>145</v>
+      </c>
+      <c r="F18" s="4">
+        <f>F17+B14</f>
+        <v>160</v>
+      </c>
+      <c r="G18" s="13">
+        <v>150</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="2">
         <v>115</v>
       </c>
-      <c r="M18" s="2">
-        <f>M14+L17</f>
+      <c r="R18" s="2">
+        <f>R14+Q17</f>
         <v>150</v>
       </c>
-      <c r="N18" s="4">
-        <f>N15+L16</f>
+      <c r="S18" s="4">
+        <f>S15+Q16</f>
         <v>160</v>
       </c>
-      <c r="O18" s="2">
-        <f>O16+L15</f>
+      <c r="T18" s="2">
+        <f>T16+Q15</f>
         <v>145</v>
       </c>
-      <c r="P18" s="2">
-        <f>P17+L14</f>
+      <c r="U18" s="2">
+        <f>U17+Q14</f>
         <v>135</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="V18" s="2">
         <v>130</v>
       </c>
-      <c r="R18" s="2">
-        <f t="shared" si="1"/>
+      <c r="W18" s="2">
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="S18" s="2">
+      <c r="X18" s="2">
         <v>2</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1148,252 +1736,456 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-    </row>
-    <row r="21" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J21" s="1"/>
-      <c r="K21" s="2" t="s">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13">
+        <v>3</v>
+      </c>
+      <c r="F21" s="13">
+        <v>4</v>
+      </c>
+      <c r="G21" s="13">
+        <v>5</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1</v>
-      </c>
-      <c r="N21" s="2">
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="S21" s="2">
         <v>2</v>
       </c>
-      <c r="O21" s="2">
-        <v>3</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="T21" s="2">
+        <v>3</v>
+      </c>
+      <c r="U21" s="2">
         <v>4</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="V21" s="2">
         <v>5</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="W21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="X21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J22" s="1"/>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2">
-        <f>MAX(L22:Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-    </row>
-    <row r="23" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>5</v>
+      </c>
+      <c r="B22" s="13">
+        <v>160</v>
+      </c>
+      <c r="C22" s="4">
+        <f>45+H17</f>
+        <v>170</v>
+      </c>
+      <c r="D22" s="11">
+        <f>70+H16</f>
+        <v>165</v>
+      </c>
+      <c r="E22" s="13">
+        <f>90+H15</f>
+        <v>160</v>
+      </c>
+      <c r="F22" s="13">
+        <f>105+H14</f>
+        <v>155</v>
+      </c>
+      <c r="G22" s="13">
+        <v>120</v>
+      </c>
+      <c r="H22" s="13">
+        <f>MAX(B22:G22)</f>
+        <v>170</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2">
+        <f>MAX(Q22:V22)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="4">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="4">
         <v>50</v>
       </c>
-      <c r="M23" s="2">
+      <c r="R23" s="2">
         <v>20</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2">
-        <f t="shared" ref="R23:R27" si="2">MAX(L23:Q23)</f>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2">
+        <f t="shared" ref="W23:W27" si="4">MAX(Q23:V23)</f>
         <v>50</v>
       </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="13">
+        <v>170</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="2">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="2">
         <v>2</v>
       </c>
-      <c r="L24" s="4">
+      <c r="Q24" s="4">
         <v>85</v>
       </c>
-      <c r="M24" s="2">
-        <f>M23+L23</f>
+      <c r="R24" s="2">
+        <f>R23+Q23</f>
         <v>70</v>
       </c>
-      <c r="N24" s="2">
+      <c r="S24" s="2">
         <v>45</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2">
-        <f t="shared" si="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2">
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-    </row>
-    <row r="25" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="13">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="2">
-        <v>3</v>
-      </c>
-      <c r="L25" s="4">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="4">
         <v>115</v>
       </c>
-      <c r="M25" s="2">
-        <f>M23+L24</f>
+      <c r="R25" s="2">
+        <f>R23+Q24</f>
         <v>105</v>
       </c>
-      <c r="N25" s="2">
-        <f>N24+L23</f>
+      <c r="S25" s="2">
+        <f>S24+Q23</f>
         <v>95</v>
       </c>
-      <c r="O25" s="2">
+      <c r="T25" s="2">
         <v>75</v>
       </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2">
-        <f t="shared" si="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2">
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="S25" s="2">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="13">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="2">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="2">
         <v>4</v>
       </c>
-      <c r="L26" s="4">
+      <c r="Q26" s="4">
         <v>140</v>
       </c>
-      <c r="M26" s="2">
-        <f>M23+L25</f>
+      <c r="R26" s="2">
+        <f>R23+Q25</f>
         <v>135</v>
       </c>
-      <c r="N26" s="2">
-        <f>N24+L24</f>
+      <c r="S26" s="2">
+        <f>S24+Q24</f>
         <v>130</v>
       </c>
-      <c r="O26" s="2">
-        <f>O25+L23</f>
+      <c r="T26" s="2">
+        <f>T25+Q23</f>
         <v>125</v>
       </c>
-      <c r="P26" s="2">
+      <c r="U26" s="2">
         <v>110</v>
       </c>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2">
-        <f t="shared" si="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2">
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="S26" s="2">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-    </row>
-    <row r="27" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="2">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="2">
         <v>5</v>
       </c>
-      <c r="L27" s="4">
+      <c r="Q27" s="4">
         <v>160</v>
       </c>
-      <c r="M27" s="4">
-        <f>M23+L26</f>
+      <c r="R27" s="4">
+        <f>R23+Q26</f>
         <v>160</v>
       </c>
-      <c r="N27" s="4">
-        <f>N24+L25</f>
+      <c r="S27" s="4">
+        <f>S24+Q25</f>
         <v>160</v>
       </c>
-      <c r="O27" s="4">
-        <f>O25+L24</f>
+      <c r="T27" s="4">
+        <f>T25+Q24</f>
         <v>160</v>
       </c>
-      <c r="P27" s="4">
-        <f>P26+L23</f>
+      <c r="U27" s="4">
+        <f>U26+Q23</f>
         <v>160</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="V27" s="2">
         <v>150</v>
       </c>
-      <c r="R27" s="2">
-        <f t="shared" si="2"/>
+      <c r="W27" s="2">
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="X27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="4">
+        <f>SUM(D25:D27)</f>
+        <v>170</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1408,273 +2200,284 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-    </row>
-    <row r="29" spans="10:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="P29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J30" s="1"/>
-      <c r="K30" s="2" t="s">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O30" s="1"/>
+      <c r="P30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-      <c r="M30" s="2">
-        <v>1</v>
-      </c>
-      <c r="N30" s="2">
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
+      </c>
+      <c r="S30" s="2">
         <v>2</v>
       </c>
-      <c r="O30" s="2">
-        <v>3</v>
-      </c>
-      <c r="P30" s="2">
+      <c r="T30" s="2">
+        <v>3</v>
+      </c>
+      <c r="U30" s="2">
         <v>4</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="V30" s="2">
         <v>5</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="W30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="X30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-    </row>
-    <row r="31" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J31" s="1"/>
-      <c r="K31" s="2">
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="O31" s="1"/>
+      <c r="P31" s="2">
         <v>5</v>
       </c>
-      <c r="L31" s="2">
+      <c r="Q31" s="2">
         <v>160</v>
       </c>
-      <c r="M31" s="4">
-        <f>45+R26</f>
+      <c r="R31" s="4">
+        <f>45+W26</f>
         <v>185</v>
       </c>
-      <c r="N31" s="4">
-        <f>70+R25</f>
+      <c r="S31" s="4">
+        <f>70+W25</f>
         <v>185</v>
       </c>
-      <c r="O31" s="2">
-        <f>90+R24</f>
+      <c r="T31" s="2">
+        <f>90+W24</f>
         <v>175</v>
       </c>
-      <c r="P31" s="2">
-        <f>105+R23</f>
+      <c r="U31" s="2">
+        <f>105+W23</f>
         <v>155</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="V31" s="2">
         <v>120</v>
       </c>
-      <c r="R31" s="2">
-        <f>MAX(L31:Q31)</f>
+      <c r="W31" s="2">
+        <f>MAX(Q31:V31)</f>
         <v>185</v>
       </c>
-      <c r="S31" s="2">
+      <c r="X31" s="2">
         <v>1.2</v>
       </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-    </row>
-    <row r="33" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="6" t="s">
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+    </row>
+    <row r="33" spans="15:28" x14ac:dyDescent="0.25">
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2" t="s">
+      <c r="R33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V33" s="2">
+        <v>185</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+    </row>
+    <row r="34" spans="15:28" x14ac:dyDescent="0.25">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="S34" s="2">
+        <v>45</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" s="2">
-        <v>185</v>
-      </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2">
-        <v>45</v>
-      </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="V34" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+    </row>
+    <row r="35" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="Q35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2">
-        <v>50</v>
-      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+    </row>
+    <row r="36" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="Q36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="2">
+        <v>1</v>
+      </c>
+      <c r="S36" s="2">
+        <v>50</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M37" s="2">
-        <v>3</v>
-      </c>
-      <c r="N37" s="2">
-        <v>90</v>
-      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+    </row>
+    <row r="37" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="Q37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R37" s="2">
+        <v>3</v>
+      </c>
+      <c r="S37" s="2">
+        <v>90</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N38" s="4">
-        <f>SUM(N34:N37)</f>
-        <v>185</v>
-      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+    </row>
+    <row r="38" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="4">
+        <f>SUM(S34:S37)</f>
+        <v>185</v>
+      </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
-    </row>
-    <row r="40" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+    </row>
+    <row r="40" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -1684,13 +2487,13 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
-    </row>
-    <row r="41" spans="10:23" x14ac:dyDescent="0.25">
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+    </row>
+    <row r="41" spans="15:28" x14ac:dyDescent="0.25">
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -1700,10 +2503,20 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="L33:N33"/>
+  <mergeCells count="6">
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="Z3:Z4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1715,33 +2528,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16EC8A4-2BEA-4707-9A34-A5BE4380BFA2}">
   <dimension ref="B3:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="J3" s="9" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="J3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="2">
         <v>1</v>
       </c>
@@ -1751,14 +2564,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="J4" s="17"/>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
         <v>2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="10">
         <v>3</v>
       </c>
       <c r="N4" s="2">
@@ -1790,7 +2603,7 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -1848,7 +2661,7 @@
       <c r="M7" s="2">
         <v>70</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="11">
         <v>65</v>
       </c>
     </row>
@@ -1871,13 +2684,13 @@
       <c r="K8" s="2">
         <v>90</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="11">
         <v>75</v>
       </c>
       <c r="M8" s="2">
         <v>80</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="11">
         <v>90</v>
       </c>
     </row>
@@ -1906,7 +2719,7 @@
       <c r="M9" s="2">
         <v>100</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="11">
         <v>100</v>
       </c>
     </row>
@@ -1935,7 +2748,7 @@
       <c r="M10" s="2">
         <v>130</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="11">
         <v>115</v>
       </c>
     </row>
@@ -1952,26 +2765,26 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="J13" s="9" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="J13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -1981,7 +2794,7 @@
       <c r="E14" s="2">
         <v>3</v>
       </c>
-      <c r="J14" s="9"/>
+      <c r="J14" s="17"/>
       <c r="K14" s="2">
         <v>1</v>
       </c>
@@ -2008,7 +2821,7 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="6"/>
       <c r="H15" t="s">
         <v>25</v>
       </c>
@@ -2024,7 +2837,7 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="11">
         <v>0</v>
       </c>
     </row>
@@ -2032,38 +2845,38 @@
       <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <f>C6/B16</f>
         <v>45</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="8">
         <f>D6/B16</f>
         <v>20</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="9">
         <f>E6/B16</f>
         <v>50</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="7">
         <f>K6/J16</f>
         <v>45</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="12">
         <f>L6/J16</f>
         <v>20</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="7">
         <f>M6/J16</f>
         <v>50</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="7">
         <f>N6/J16</f>
         <v>35</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="6"/>
       <c r="Q16" t="s">
         <v>25</v>
       </c>
@@ -2072,34 +2885,34 @@
       <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="8">
         <f>C7/B17</f>
         <v>35</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <f>D7/B17</f>
         <v>22.5</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="8">
         <f>E7/B17</f>
         <v>35</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="12">
         <f>K7/J17</f>
         <v>35</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="12">
         <f>L7/J17</f>
         <v>22.5</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="12">
         <f>M7/J17</f>
         <v>35</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="12">
         <f>N7/J17</f>
         <v>32.5</v>
       </c>
@@ -2108,76 +2921,76 @@
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <f>C8/B18</f>
         <v>30</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <f>D8/B18</f>
         <v>25</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <f>E8/B18</f>
         <v>26.666666666666668</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="12">
         <f>K8/J18</f>
         <v>30</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="12">
         <f>L8/J18</f>
         <v>25</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="12">
         <f>M8/J18</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="12">
         <f>N8/J18</f>
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>4</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="8">
         <f>C9/B19</f>
         <v>26.25</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <f>D9/B19</f>
         <v>27.5</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="8">
         <f>E9/B19</f>
         <v>25</v>
       </c>
       <c r="J19" s="2">
         <v>4</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="12">
         <f>K9/J19</f>
         <v>26.25</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="12">
         <f>L9/J19</f>
         <v>27.5</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="12">
         <f>M9/J19</f>
         <v>25</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="12">
         <f>N9/J19</f>
         <v>25</v>
       </c>
@@ -2186,53 +2999,53 @@
       <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="8">
         <f>C10/B20</f>
         <v>24</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="9">
         <f>D10/B20</f>
         <v>30</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <f>E10/B20</f>
         <v>26</v>
       </c>
       <c r="J20" s="2">
         <v>5</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="12">
         <f>K10/J20</f>
         <v>24</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="7">
         <f>L10/J20</f>
         <v>30</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M20" s="12">
         <f>M10/J20</f>
         <v>26</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="12">
         <f>N10/J20</f>
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="2">
         <v>170</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O23" s="2">
         <v>175</v>
@@ -2240,47 +3053,47 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
